--- a/storage.xlsx
+++ b/storage.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Путь к локальной картинке</t>
+  </si>
+  <si>
+    <t>Описание:</t>
   </si>
 </sst>
 </file>
@@ -398,23 +401,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,6 +443,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/storage.xlsx
+++ b/storage.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Ссылка на изображение:</t>
-  </si>
-  <si>
-    <t>Путь к локальной картинке</t>
   </si>
   <si>
     <t>Описание:</t>
@@ -401,11 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -416,10 +411,10 @@
     <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,9 +438,6 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/storage.xlsx
+++ b/storage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -42,661 +42,649 @@
     <t>Описание:</t>
   </si>
   <si>
-    <t>Ноутбук RoverBook Explorer H576L в Москве</t>
+    <t>Продам ноутбук asus, ноябрь 2007 год выпуска в Москве</t>
+  </si>
+  <si>
+    <t>м. Первомайская</t>
+  </si>
+  <si>
+    <t>Сегодня16:25</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/prodam_noutbuk_asus_noyabr_2007_god_vypuska_811981497</t>
+  </si>
+  <si>
+    <t>http://82.img.avito.st/140x105/2837741582.jpg</t>
+  </si>
+  <si>
+    <t>Продам ноутбук ASUS. Дата выпуска ноябрь 2007 год. Ноутбук в рабочем состоянии. ASUS M50Sr (Pro58Sr) 15,4"WXGA iCore2DuoT5750 (2,0)/3072/250/DVD+-RW/ATI HD3470 256/WiFi/BT/Cam/WVHB. Технические характеристики на фотографиях видны. Внешний вид: без трещин, на клавишах не стерты буквы и цифры, не поцарапан. Установочные диски сохранены.</t>
+  </si>
+  <si>
+    <t>MSI ge70 + ssd 250gb в Москве</t>
+  </si>
+  <si>
+    <t>м. Жулебино</t>
+  </si>
+  <si>
+    <t>Сегодня16:18</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/msi_ge70_ssd_250gb_874835342</t>
+  </si>
+  <si>
+    <t>http://29.img.avito.st/140x105/3173571929.jpg</t>
+  </si>
+  <si>
+    <t>ОБЩЕНИЕ ТОЛЬКО ЧЕРЕЗ СООБЩЕНИЯ!!!!!!</t>
+  </si>
+  <si>
+    <t>Apple macbook Pro 15 Retina 90 циклов как новый в Москве</t>
+  </si>
+  <si>
+    <t>Компания</t>
+  </si>
+  <si>
+    <t>Сегодня16:01</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/apple_macbook_pro_15_retina_90_tsiklov_kak_novyy_874826040</t>
+  </si>
+  <si>
+    <t>http://54.img.avito.st/140x105/3173531054.jpg</t>
+  </si>
+  <si>
+    <t>Продаю практически новый macbook pro 15 Retina display.Полный комплект,как из магазина.Был куплен в 2014 году.Модель конца 2013 года.Идеальный ни царапин,ни потертостей,как новый.Использовался очень редко.Состояние нового.2 ггц Intel core i78 gb DDR3Intel Iris 1536 mb256 gb SSDРостест.Полный комплект:коробка,зарядка.90 циклов перезарядки</t>
+  </si>
+  <si>
+    <t>Состояние нового Hp pavilion 2 ядра Гарантия Доста в Москве</t>
+  </si>
+  <si>
+    <t>м. Павелецкая</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/sostoyanie_novogo_hp_pavilion_2_yadra_garantiya_dosta_874251154</t>
+  </si>
+  <si>
+    <t>http://59.img.avito.st/140x105/3171419859.jpg</t>
+  </si>
+  <si>
+    <t>С 2008 года продаем ноутбуки оптом и в розницу в Москве и регионах</t>
+  </si>
+  <si>
+    <t>Ультрабук Acer 3Gb 13.3" Windows 8 в Москве</t>
+  </si>
+  <si>
+    <t>м. Лубянка</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/ultrabuk_acer_3gb_13.3_windows_8_874825619</t>
+  </si>
+  <si>
+    <t>http://34.img.avito.st/140x105/3173534434.jpg</t>
+  </si>
+  <si>
+    <t>продаю мощный вменяемый ультрабуквсе работает прекрасно3гб оперативной памяти -- достаточно для любых бытовых задач, интернета, игртоповый процессор Intel Core SU1400аккум держит часа 2.5прекрасный яркий дисплей 13.3"работает под управлением свежей Windows 8нечего думать, надо брать!</t>
+  </si>
+  <si>
+    <t>Ноутбук в Москве</t>
+  </si>
+  <si>
+    <t>м. Алтуфьево</t>
+  </si>
+  <si>
+    <t>Сегодня16:22</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_874837797</t>
+  </si>
+  <si>
+    <t>http://71.img.avito.st/140x105/3173566271.jpg</t>
+  </si>
+  <si>
+    <t>Продам свой ноутбук.Состояние отличное,есть коробка,документы.Без вэбкамеры. Служил верой и правдой.Бегает шустренько.Все работает.Может кому то послужит еще.модель TrevelMate2300series</t>
+  </si>
+  <si>
+    <t>MacBook Air 13" mid2013 i5 256Gb в идеале в Москве</t>
+  </si>
+  <si>
+    <t>м. Перово</t>
+  </si>
+  <si>
+    <t>Сегодня16:14</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_air_13_mid2013_i5_256gb_v_ideale_874833178</t>
+  </si>
+  <si>
+    <t>http://35.img.avito.st/140x105/3173555135.jpg</t>
+  </si>
+  <si>
+    <t>Ноутбук в идеальном состоянии, пользовалась супруга и крайне редко (чтоб фотки с айфона скинуть), поэтому всего 197 циклов родного аккумулятора. Ни падал,  ни заливался, работает абсолютно все, полное отсутствие битых пикселей на экране, вмятин и т.п.Приобретался в марте 2014г. Полный комплект, коробка и все, что в ней было. Любые ваши тщательные проверки только приветствуются. Цена без торга, обмен не интересен, т.к. приобретен macbook 12Характеристики MacBook Air 13" core i5 1,3 ГГц4Гб 1600МгцSSD 256ГбIntel HD Graphics 5000</t>
+  </si>
+  <si>
+    <t>Ноутбук Lenovo ThinkPad T430 Неубиваемый в Москве</t>
+  </si>
+  <si>
+    <t>м. Комсомольская</t>
+  </si>
+  <si>
+    <t>Сегодня16:05</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_lenovo_thinkpad_t430_neubivaemyy_871970459</t>
+  </si>
+  <si>
+    <t>http://45.img.avito.st/140x105/3162971145.jpg</t>
+  </si>
+  <si>
+    <t>Поступили в продажу высокопроизводительные, качественные и надежные ноутбуки IBM Lenovo</t>
+  </si>
+  <si>
+    <t>Игровой/мощный /A6-6310 4Gb/500Gb в Москве</t>
+  </si>
+  <si>
+    <t>Сегодня16:21</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/igrovoymoschnyy_a6-6310_4gb500gb_760378269</t>
+  </si>
+  <si>
+    <t>http://32.img.avito.st/140x105/2997083832.jpg</t>
+  </si>
+  <si>
+    <t>****** ****** ****** ******* ****** ****** ******* *******Даем письменную гарантию на обмен ноутбка,если он не подошел вам после покупки.****** ****** ****** ***** ***** ****** ****** ****** *******</t>
+  </si>
+  <si>
+    <t>Нетбук asus EEE pc 1201 n в Москве</t>
+  </si>
+  <si>
+    <t>Сегодня16:08</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/netbuk_asus_eee_pc_1201_n_874830243</t>
+  </si>
+  <si>
+    <t>http://30.img.avito.st/140x105/3173545830.jpg</t>
+  </si>
+  <si>
+    <t>Дефект экрана в левом нижнем углу, на работу не влияет. Система Windows 8.1 pro. Память  разделена на два диска: С системный 77,7 ГБ и Е пользовательский 154 ГБ. Идеален для просмотра фильмов в поездках и работы с фото. Продаю по причине получения рабочего ноута таких же размеров. В комплекте ЗУ и чехол мягкий.</t>
+  </si>
+  <si>
+    <t>Игровой, тонкий Ноутбук Acer V5-532G A8/4gb/500gb в Москве</t>
+  </si>
+  <si>
+    <t>м. Тульская</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/igrovoy_tonkiy_noutbuk_acer_v5-532g_a84gb500gb_874838053</t>
+  </si>
+  <si>
+    <t>http://68.img.avito.st/140x105/3173589068.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продается мощный игровой ноутбук Асер Aspire V5-532 в тонком, легком корпусе, с оригинальным зарядным устройством в комплекте.Отличные характеристики позволят играть в массу игр, решить кучу различных задач, заниматься учебой или работой.Экран 15.6 дюйма с разрешением 1366 на 768 пикселей </t>
+  </si>
+  <si>
+    <t>Lenovo Yoga 3 Pro Core M 4Gb 128SSD (гарантия) в Москве</t>
+  </si>
+  <si>
+    <t>м. Динамо</t>
+  </si>
+  <si>
+    <t>Сегодня16:17</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/lenovo_yoga_3_pro_core_m_4gb_128ssd_garantiya_865671975</t>
+  </si>
+  <si>
+    <t>http://81.img.avito.st/140x105/3140032381.jpg</t>
+  </si>
+  <si>
+    <t>● Модель: Lenovo IdeaPad Yoga 3 Pro 1370 (80HE00UCRK).● Состояние: отличное(на фото именно это устройство), б/у, полностью исправен, в ремонте не был, 4-х ядерный.● Цвет: оранжевый.● Комплект: сетевой адаптер, кабель питания, документы, коробка.---------------------------------------------------------------------------------------------------● Характеристики:Тип процессора — Intel Core M-5Y51 CPUЧастота процессора — 1100 МГцРазмер оперативной памяти — 4 ГбОбъем накопителя — 128 Гб SSDРазмер экрана — 13.3 дюймВидеопроцессор — HD Graphics 5300Беспроводная связь — Wi-Fi/BluetoothОперационная система — Win 8.1---------------------------------------------------------------------------------------------------● Цена: 44 990 руб.---------------------------------------------------------------------------------------------------● Техническая гарантия: 2 недели(если устройство неисправно - заменим на аналогичное с перерасчетом стоимости, безвозмездно устраним недостатки, или вернем уплаченную за товар сумму).● Юридическая гарантия: пожизненная(предоставим все необходимые документы - договор купли-продажи и акт приема-передачи; товарный и кассовый чек. Вернем уплаченную за товар сумму, если устройство приобретено незаконным путем).---------------------------------------------------------------------------------------------------Если Вы читаете это объявление – значит товар в наличии!Также всегда в продаже сопутствующие аксессуары!---------------------------------------------------------------------------------------------------● Время работы: с 10:00 до 21:00 - ежедневно.● Адрес: Москва, Нарышкинская аллея, 5.---------------------------------------------------------------------------------------------------● Самовывоз: бесплатно, производится после резерва товара.● Доставка по Москве: 500 руб.● Доставка по России: производится только после 100% оплаты товара и стоимости доставки, и рассчитывается согласно тарифам транспортных компаний. Порядочность гарантируем!</t>
+  </si>
+  <si>
+    <t>Продам рабочий нетбук Acer с зарядным в Москве</t>
+  </si>
+  <si>
+    <t>м. Парк культуры</t>
+  </si>
+  <si>
+    <t>Сегодня15:56</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/prodam_rabochiy_netbuk_acer_s_zaryadnym_874823336</t>
+  </si>
+  <si>
+    <t>http://35.img.avito.st/140x105/3173519335.jpg</t>
+  </si>
+  <si>
+    <t>В общем, вполне неплохой нетбук, использовал аккуратно. Покупался в недалеком 2013 году за 15 тыс.руб. Продаю, т.к. уже давненько не использую его. Работает.</t>
+  </si>
+  <si>
+    <t>Игровой Asus на мощной начинке Гарантия Доставка в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/igrovoy_asus_na_moschnoy_nachinke_garantiya_dostavka_874221099</t>
+  </si>
+  <si>
+    <t>http://27.img.avito.st/140x105/3171263827.jpg</t>
+  </si>
+  <si>
+    <t>MacBook Air 13" как Новенький в Москве</t>
   </si>
   <si>
     <t>Не удалось определить</t>
   </si>
   <si>
+    <t>Сегодня16:16</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_air_13_kak_novenkiy_874834354</t>
+  </si>
+  <si>
+    <t>http://29.img.avito.st/140x105/3173561729.jpg</t>
+  </si>
+  <si>
+    <t>MacBook Air 13 в прекрасном состоянии. Ни царапин, ни вмятин, никаких дефектов. Все работает как положено, технически абсолютно исправен. Характеристики на фото. В комплекте зарядка, чехол.</t>
+  </si>
+  <si>
+    <t>HP Core i7 2630QM/8 Ядер/Мощный-Игровой radeon в Москве</t>
+  </si>
+  <si>
+    <t>Сегодня15:55</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/hp_core_i7_2630qm8_yadermoschnyy-igrovoy_radeon_874822450</t>
+  </si>
+  <si>
+    <t>http://74.img.avito.st/140x105/3173533474.jpg</t>
+  </si>
+  <si>
+    <t>Здравствуйте!Продаём HP,который стоял у нас в офисе.Приобретала стоматологическая компания для офиса за 46 тыс.р.Всё идеально работает.ЛЮБЫЕ проверки приветствуются!!!Техническое состояние на 5+.Нужен Жёсткий диск и оперативная Память и установка Windows.Внешнее состояние на 5.В ремонте Не был.Не шумит Не греется.Если Вы хотите купить ноутбук без "Головных болей" и "Подводных камней" - Вот Он!Загружается быстро ~ 10 сек.В комплекте Ноутбук,З/У(зарядное устройство).   Процессор Core i7..,Это 8 Ядер,по 2 Ghz(частота)на каждое.+ режим TurboBost(авторазгон)до 3.3 Ghz.Мощный.Лучше многих Core i3..,Core i5 или AMD.   Диагональ ноутбука - 15.6 Дюймов.С DVD CD приводом(Пишущий) + Антибликовый экран.   Две Видеокарты..;RADEON 6770 на 2 Gb.Тянет абсолютно любые программы и игры..;   PhotoShop.   AutoCad.   3dMax.А также..;   GTA 3,4,5 - на средних.   MassEffect(последний) - на максималках.   FELLAUT 2,3 - на максималках.   MAFIA 2 - на максималках.   MetroRedux - на максималках.   PROTOTIP - на максималках.   TANKI 80-100 FPC (довольно не плохо).   DOTA и т.д. и т.п...+ HD GRAPHICS 3000 около 2 Gb.Для рабочего стола.Итого 4 Gb.Видеопамяти.USB 3.0,2.0,3.0,2.0...HDMI разъём полноценный.VGA - разъём.Островная Клавиатура - Обрезиненная.!Wi-Fi и т.д. и т.п...Любые проверки приветствуются!!!Торга Нет.Торга Нет.Подвезу к своему метро.Звонить можно КРУГЛОСУТОЧНО!</t>
+  </si>
+  <si>
+    <t>Sony PCG-5K4P в Москве</t>
+  </si>
+  <si>
+    <t>м. Южная</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/sony_pcg-5k4p_874835129</t>
+  </si>
+  <si>
+    <t>http://59.img.avito.st/140x105/3173564259.jpg</t>
+  </si>
+  <si>
+    <t>Продам ноут, перестал включаться. На запчасти(без hdd и батареи)</t>
+  </si>
+  <si>
+    <t>Нетбук lenovo(idealpad S10-3S) в Москве</t>
+  </si>
+  <si>
+    <t>Сегодня16:00</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/netbuk_lenovoidealpad_s10-3s_874825022</t>
+  </si>
+  <si>
+    <t>http://33.img.avito.st/140x105/3173519833.jpg</t>
+  </si>
+  <si>
+    <t>Очень оригинальная модель с возможностью поддержки сим картыпредусмотрен специальный слот для неёВ отличном состоянии пользовались для перелетовКупил жене планшет нотик продам за ненадобностью</t>
+  </si>
+  <si>
+    <t>Кнопка включения(переключать) Samsung N130 N150 в Москве</t>
+  </si>
+  <si>
+    <t>м. Аннино</t>
+  </si>
+  <si>
+    <t>Сегодня16:03</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/knopka_vklyucheniyapereklyuchat_samsung_n130_n150_490624066</t>
+  </si>
+  <si>
+    <t>http://39.img.avito.st/140x105/1380454839.jpg</t>
+  </si>
+  <si>
+    <t>подходит для Samsung N100 N130 N145 N148 N150 NC10 N250 N260 NP-N130 NP-N135 NP-N140 NP-N145</t>
+  </si>
+  <si>
+    <t>Hp 620 intel core 2 duo 4500/4gb/SSD-60/web камера в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/hp_620_intel_core_2_duo_45004gbssd-60web_kamera_598041027</t>
+  </si>
+  <si>
+    <t>http://08.img.avito.st/140x105/1761286808.jpg</t>
+  </si>
+  <si>
+    <t>Hp-620 intel core 2 duo 4500/4gb/SSD-60/камера</t>
+  </si>
+  <si>
+    <t>Sony vaio VGN-SZ2XRP в Москве</t>
+  </si>
+  <si>
+    <t>м. ВДНХ</t>
+  </si>
+  <si>
+    <t>Сегодня15:58</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/sony_vaio_vgn-sz2xrp_874824260</t>
+  </si>
+  <si>
+    <t>http://15.img.avito.st/140x105/3173523115.jpg</t>
+  </si>
+  <si>
+    <t>Продается на запчасти ноутбук Sony VAIO VGN SZ2XRP.Повреждены разьемы шлейфов:1) На плате с разъемами наушников\микрофона.2) На материнской плате, в который втыкается шлейф от платы с кнопкой питания.все остальное в отличном рабочем состоянии.Цены на отдельные запчасти- в личку</t>
+  </si>
+  <si>
+    <t>Power book g4 в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/power_book_g4_874830151</t>
+  </si>
+  <si>
+    <t>http://44.img.avito.st/140x105/3173546444.jpg</t>
+  </si>
+  <si>
+    <t>Состояние на 4, год назад работал, положил на полку и сейчас больше не включается, возможно проблема с батареей.</t>
+  </si>
+  <si>
+    <t>Asus EEE PC 1215B + SSD OCZ Agility 3 64Gb в Москве</t>
+  </si>
+  <si>
+    <t>м. Беляево</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/asus_eee_pc_1215b_ssd_ocz_agility_3_64gb_874823240</t>
+  </si>
+  <si>
+    <t>http://79.img.avito.st/140x105/3173518079.jpg</t>
+  </si>
+  <si>
+    <t>Продам нетбук Asus EEE PC 1215B, установлен жесткий диск SSD OCZ Agility 3 64Gb, 4Gb ОЗУ.11,6"AMD E-450 APU 1.65GhzRadeon HD Graphics</t>
+  </si>
+  <si>
+    <t>Macbook pro 15' 2013, i7, 16 gb, 512 SSD в Москве</t>
+  </si>
+  <si>
+    <t>м. Новогиреево</t>
+  </si>
+  <si>
+    <t>Сегодня16:06</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_15_2013_i7_16_gb_512_ssd_861759054</t>
+  </si>
+  <si>
+    <t>http://82.img.avito.st/140x105/3155026582.jpg</t>
+  </si>
+  <si>
+    <t>Продам в хорошие руки свой собственный любимый макбук (не перекуп). Топовая комплектация, состояние идеальное. В комплекте макбук, зарядка, удлинитель. Все вопросы по телефону. Разумный торг.</t>
+  </si>
+  <si>
+    <t>Hp 17 дюймов Game 2015 идеал в коробке в Москве</t>
+  </si>
+  <si>
+    <t>м. Алексеевская</t>
+  </si>
+  <si>
+    <t>Сегодня16:02</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/hp_17_dyuymov_game_2015_ideal_v_korobke_874826320</t>
+  </si>
+  <si>
+    <t>http://23.img.avito.st/140x105/3173567123.jpg</t>
+  </si>
+  <si>
+    <t>Игровой мощный ноутбук 17 дюймов , год простоял на столе, отличное состояние . 42.000 новый покупала . Коробка и зарядка м документами естьAmd a8-4500M 1,90 GhzОзу 8 Гб; 1000 Гб жесткий Amd Radeon HD 7640G+ hd 8600M dual graphics Windows 10, батарея 5-6 часов держит отлично</t>
+  </si>
+  <si>
+    <t>Acer матовый 4ядра 4 гига в Москве</t>
+  </si>
+  <si>
+    <t>м. Отрадное</t>
+  </si>
+  <si>
+    <t>Сегодня16:09</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/acer_matovyy_4yadra_4_giga_874830673</t>
+  </si>
+  <si>
+    <t>http://76.img.avito.st/140x105/3173548276.jpg</t>
+  </si>
+  <si>
+    <t>Acer Aspire e1-510Intel -1,864ядра:4гига ram500 HDD  Windows8HD Graphics -1,7Состояние нового ,практический не пользовались ,потому и продаю лежит без дела.Х</t>
+  </si>
+  <si>
+    <t>Ноутбук LG в Москве</t>
+  </si>
+  <si>
+    <t>м. Зябликово</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_lg_849684311</t>
+  </si>
+  <si>
+    <t>http://76.img.avito.st/140x105/3056447076.jpg</t>
+  </si>
+  <si>
+    <t>windows xp все работает, есть на мониторе не большой дефект, в виде вертикальной нити....старенький, но работяга!</t>
+  </si>
+  <si>
+    <t>м. Водный стадион</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_874834907</t>
+  </si>
+  <si>
+    <t>http://49.img.avito.st/140x105/3173571749.jpg</t>
+  </si>
+  <si>
+    <t>асус в итс,жена только кино смотрела на работе,160 г, два ядра ,два гига ,видюха 3400,WiFi,  и т.п.15,9 дюйм. батарея держит 1.5часа</t>
+  </si>
+  <si>
+    <t>MacBook 13, 2007г в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_13_2007g_874837724</t>
+  </si>
+  <si>
+    <t>http://26.img.avito.st/140x105/3173574126.jpg</t>
+  </si>
+  <si>
+    <t>Продаю MacBook 2007 года. В хорошем техническом состоянии, все работает. Состояние и характеристики видны на фото. В комплекте: шнур для зарядки, ноутбук, пульт, документация, установочные диски с Mac OS, чек + новая батарея (101 цикл). Память можно расширить до 6gb.</t>
+  </si>
+  <si>
+    <t>Мощный, 4-ядерный Lenovo в идеальном состоянии в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/moschnyy_4-yadernyy_lenovo_v_idealnom_sostoyanii_669470117</t>
+  </si>
+  <si>
+    <t>http://56.img.avito.st/140x105/2022528956.jpg</t>
+  </si>
+  <si>
+    <t>Организация "колл-центр" закрылась и распродает ноутбуки своих сотрудников. Ноутбуки стояли на столах и никуда не выносились, не топились, не вскрывались, работали на них девушки. Состояние ноутбуков есть как новое - без единых царапин, есть поцарапанные, лучше смотреть не месте. Есть какие то в упаковках, есть какие то без упаковок. На каждом ноутбуке стоит лицензионный Windows, Office, Word, Excel, нужные программы, настроены и готовы к работе - сразу. Оптовикам есть скидка. В отличие от других продавцов в Авито - у нас есть выбор (10-15 штук) - даём 100% гарантию от себя на возврат и обмен. Дадим возможность включить каждый, проверить всё на месте - не спеша. Предложение ограничение, мы в центре, звоните сейчас и приезжайте!</t>
+  </si>
+  <si>
+    <t>Acer core i7 тоненький в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/acer_core_i7_tonenkiy_874822880</t>
+  </si>
+  <si>
+    <t>http://96.img.avito.st/140x105/3173518496.jpg</t>
+  </si>
+  <si>
+    <t>Acer ultra 15.6" экран матовый игровой GeForce GT 640 m HD 3000500 gb HHD 6 gb ram Core i7 turbo 2.9 ghz 4 часа Аккум при нагрузке</t>
+  </si>
+  <si>
+    <t>MacBook Pro 1.1 в Москве</t>
+  </si>
+  <si>
+    <t>м. Пионерская</t>
+  </si>
+  <si>
+    <t>Сегодня16:15</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_1.1_703563106</t>
+  </si>
+  <si>
+    <t>http://85.img.avito.st/140x105/2157191785.jpg</t>
+  </si>
+  <si>
+    <t>Все работает.Комплект: ноут плюс зарядка. Самовывоз метро ПионерскаяМогу отправить почтой при полной предоплате плюс пересыл.</t>
+  </si>
+  <si>
+    <t>Мак про 13 128ssd в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/mak_pro_13_128ssd_874837478</t>
+  </si>
+  <si>
+    <t>http://29.img.avito.st/140x105/3173573129.jpg</t>
+  </si>
+  <si>
+    <t>Супер мак для дома и офиса MacBook Pro 13 звоните цена интересная Ssd 128 core 2 duo 2.66ghz 4 gb Новый Аккум поставил в рэстори GeForce 320</t>
+  </si>
+  <si>
+    <t>Asus eee pc 1001px в Москве</t>
+  </si>
+  <si>
+    <t>м. Преображенская площадь</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/asus_eee_pc_1001px_874829009</t>
+  </si>
+  <si>
+    <t>http://57.img.avito.st/140x105/3173176257.jpg</t>
+  </si>
+  <si>
+    <t>нетбук в хорошем состоянии полностью готов к работе, установлен Windows XP.добавлено памяти 2гб и жесткий диск на 320гб.В комплекте зарядка.батарея живая.Забрать можно на Преображенской площади, возможно встреча в центре.</t>
+  </si>
+  <si>
+    <t>Абсолютно новый HP 14-AN013AR в Москве</t>
+  </si>
+  <si>
+    <t>м. Щелковская</t>
+  </si>
+  <si>
+    <t>Сегодня16:11</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/absolyutno_novyy_hp_14-an013ar_874831848</t>
+  </si>
+  <si>
+    <t>http://21.img.avito.st/140x105/3173551921.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноут привезен из штатов .Привезли 2 штуки. Один остался мне, второй продается. Коробка не распечатывалась, все пломбы на месте. </t>
+  </si>
+  <si>
+    <t>Трансформер Acer Aspire Switch 10 SW5-012-11EH в Москве</t>
+  </si>
+  <si>
+    <t>м. Проспект Мира</t>
+  </si>
+  <si>
+    <t>Сегодня16:23</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/transformer_acer_aspire_switch_10_sw5-012-11eh_874838123</t>
+  </si>
+  <si>
+    <t>http://58.img.avito.st/140x105/3173568858.jpg</t>
+  </si>
+  <si>
+    <t>Очень хорошая машинка, исправно служила, пользовался редко. Удобна, надёжна, хорошее изображение. На ней хорошо работать с текстом, в инете, хотя как - то на неё Skyrim ставил. Без торга, в комплекте есть чехол.</t>
+  </si>
+  <si>
+    <t>Хорошее решение для всего Acer aspire Гарантия в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/horoshee_reshenie_dlya_vsego_acer_aspire_garantiya_874248429</t>
+  </si>
+  <si>
+    <t>http://07.img.avito.st/140x105/3171402007.jpg</t>
+  </si>
+  <si>
+    <t>Ультрабук без единой царапины (4ядра) в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/ultrabuk_bez_edinoy_tsarapiny_4yadra_857217774</t>
+  </si>
+  <si>
+    <t>http://33.img.avito.st/140x105/3099871033.jpg</t>
+  </si>
+  <si>
+    <t>Продается ноутбук в идеальном состоянии.</t>
+  </si>
+  <si>
+    <t>MacBook Pro 13" в Москве</t>
+  </si>
+  <si>
+    <t>м. Крылатское</t>
+  </si>
+  <si>
+    <t>Сегодня16:19</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_13_873195383</t>
+  </si>
+  <si>
+    <t>http://38.img.avito.st/140x105/3167622238.jpg</t>
+  </si>
+  <si>
+    <t>Модель: MF8392.7GHz8gb128GB</t>
+  </si>
+  <si>
+    <t>С 4 гигами Lenovo IdeaPad G505 в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/s_4_gigami_lenovo_ideapad_g505_840075001</t>
+  </si>
+  <si>
+    <t>http://70.img.avito.st/140x105/2999855670.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Продам на запчасти в Москве</t>
+  </si>
+  <si>
+    <t>м. Курская</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/noutbuki/prodam_na_zapchasti_874833095</t>
+  </si>
+  <si>
+    <t>http://79.img.avito.st/140x105/3173557479.jpg</t>
+  </si>
+  <si>
+    <t>Продам на запчасти ноутбук. Перестал загружаться, требует ввести загрузочный диск.</t>
+  </si>
+  <si>
+    <t>Ноутбук Sony Vaio в Москве</t>
+  </si>
+  <si>
+    <t>м. Улица 1905 года</t>
+  </si>
+  <si>
     <t>Сегодня16:28</t>
   </si>
   <si>
-    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_roverbook_explorer_h576l_767227015</t>
-  </si>
-  <si>
-    <t>http://85.img.avito.st/140x105/2577129985.jpg</t>
-  </si>
-  <si>
-    <t>Все функции работают. Батарею держит минут 10-30. Спецификация на фото.В комплекте: ноутбук, зарядка с проводом и мышь.</t>
-  </si>
-  <si>
-    <t>Ноутбук LG в Москве</t>
-  </si>
-  <si>
-    <t>м. Зябликово</t>
-  </si>
-  <si>
-    <t>Сегодня15:58</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_lg_849684311</t>
-  </si>
-  <si>
-    <t>http://76.img.avito.st/140x105/3056447076.jpg</t>
-  </si>
-  <si>
-    <t>windows xp все работает, есть на мониторе не большой дефект, в виде вертикальной нити....старенький, но работяга!</t>
-  </si>
-  <si>
-    <t>MSI ge70 + ssd 250gb в Москве</t>
-  </si>
-  <si>
-    <t>м. Жулебино</t>
-  </si>
-  <si>
-    <t>Сегодня16:18</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/msi_ge70_ssd_250gb_874835342</t>
-  </si>
-  <si>
-    <t>http://29.img.avito.st/140x105/3173571929.jpg</t>
-  </si>
-  <si>
-    <t>ОБЩЕНИЕ ТОЛЬКО ЧЕРЕЗ СООБЩЕНИЯ!!!!!!</t>
-  </si>
-  <si>
-    <t>Состояние нового Hp pavilion 2 ядра Гарантия Доста в Москве</t>
-  </si>
-  <si>
-    <t>м. Павелецкая</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/sostoyanie_novogo_hp_pavilion_2_yadra_garantiya_dosta_874251154</t>
-  </si>
-  <si>
-    <t>http://59.img.avito.st/140x105/3171419859.jpg</t>
-  </si>
-  <si>
-    <t>С 2008 года продаем ноутбуки оптом и в розницу в Москве и регионах</t>
-  </si>
-  <si>
-    <t>Ультрабук Acer 3Gb 13.3" Windows 8 в Москве</t>
-  </si>
-  <si>
-    <t>м. Лубянка</t>
-  </si>
-  <si>
-    <t>Сегодня16:01</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/ultrabuk_acer_3gb_13.3_windows_8_874825619</t>
-  </si>
-  <si>
-    <t>http://34.img.avito.st/140x105/3173534434.jpg</t>
-  </si>
-  <si>
-    <t>продаю мощный вменяемый ультрабуквсе работает прекрасно3гб оперативной памяти -- достаточно для любых бытовых задач, интернета, игртоповый процессор Intel Core SU1400аккум держит часа 2.5прекрасный яркий дисплей 13.3"работает под управлением свежей Windows 8нечего думать, надо брать!</t>
-  </si>
-  <si>
-    <t>Ноутбук в Москве</t>
-  </si>
-  <si>
-    <t>м. Алтуфьево</t>
-  </si>
-  <si>
-    <t>Сегодня16:22</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_874837797</t>
-  </si>
-  <si>
-    <t>http://71.img.avito.st/140x105/3173566271.jpg</t>
-  </si>
-  <si>
-    <t>Продам свой ноутбук.Состояние отличное,есть коробка,документы.Без вэбкамеры. Служил верой и правдой.Бегает шустренько.Все работает.Может кому то послужит еще.модель TrevelMate2300series</t>
-  </si>
-  <si>
-    <t>MacBook Air 13" mid2013 i5 256Gb в идеале в Москве</t>
-  </si>
-  <si>
-    <t>м. Перово</t>
-  </si>
-  <si>
-    <t>Сегодня16:14</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_air_13_mid2013_i5_256gb_v_ideale_874833178</t>
-  </si>
-  <si>
-    <t>http://35.img.avito.st/140x105/3173555135.jpg</t>
-  </si>
-  <si>
-    <t>Ноутбук в идеальном состоянии, пользовалась супруга и крайне редко (чтоб фотки с айфона скинуть), поэтому всего 197 циклов родного аккумулятора. Ни падал,  ни заливался, работает абсолютно все, полное отсутствие битых пикселей на экране, вмятин и т.п.Приобретался в марте 2014г. Полный комплект, коробка и все, что в ней было. Любые ваши тщательные проверки только приветствуются. Цена без торга, обмен не интересен, т.к. приобретен macbook 12Характеристики MacBook Air 13" core i5 1,3 ГГц4Гб 1600МгцSSD 256ГбIntel HD Graphics 5000</t>
-  </si>
-  <si>
-    <t>Ноутбук Lenovo ThinkPad T430 Неубиваемый в Москве</t>
-  </si>
-  <si>
-    <t>м. Комсомольская</t>
-  </si>
-  <si>
-    <t>Сегодня16:05</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_lenovo_thinkpad_t430_neubivaemyy_871970459</t>
-  </si>
-  <si>
-    <t>http://45.img.avito.st/140x105/3162971145.jpg</t>
-  </si>
-  <si>
-    <t>Поступили в продажу высокопроизводительные, качественные и надежные ноутбуки IBM Lenovo</t>
-  </si>
-  <si>
-    <t>Игровой/мощный /A6-6310 4Gb/500Gb в Москве</t>
-  </si>
-  <si>
-    <t>Сегодня16:21</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/igrovoymoschnyy_a6-6310_4gb500gb_760378269</t>
-  </si>
-  <si>
-    <t>http://32.img.avito.st/140x105/2997083832.jpg</t>
-  </si>
-  <si>
-    <t>****** ****** ****** ******* ****** ****** ******* *******Даем письменную гарантию на обмен ноутбка,если он не подошел вам после покупки.****** ****** ****** ***** ***** ****** ****** ****** *******</t>
-  </si>
-  <si>
-    <t>Нетбук asus EEE pc 1201 n в Москве</t>
-  </si>
-  <si>
-    <t>Сегодня16:08</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/netbuk_asus_eee_pc_1201_n_874830243</t>
-  </si>
-  <si>
-    <t>http://30.img.avito.st/140x105/3173545830.jpg</t>
-  </si>
-  <si>
-    <t>Дефект экрана в левом нижнем углу, на работу не влияет. Система Windows 8.1 pro. Память  разделена на два диска: С системный 77,7 ГБ и Е пользовательский 154 ГБ. Идеален для просмотра фильмов в поездках и работы с фото. Продаю по причине получения рабочего ноута таких же размеров. В комплекте ЗУ и чехол мягкий.</t>
-  </si>
-  <si>
-    <t>Мощный, 4-ядерный Lenovo в идеальном состоянии в Москве</t>
-  </si>
-  <si>
-    <t>Компания</t>
-  </si>
-  <si>
-    <t>Сегодня16:02</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/moschnyy_4-yadernyy_lenovo_v_idealnom_sostoyanii_669470117</t>
-  </si>
-  <si>
-    <t>http://56.img.avito.st/140x105/2022528956.jpg</t>
-  </si>
-  <si>
-    <t>Организация "колл-центр" закрылась и распродает ноутбуки своих сотрудников. Ноутбуки стояли на столах и никуда не выносились, не топились, не вскрывались, работали на них девушки. Состояние ноутбуков есть как новое - без единых царапин, есть поцарапанные, лучше смотреть не месте. Есть какие то в упаковках, есть какие то без упаковок. На каждом ноутбуке стоит лицензионный Windows, Office, Word, Excel, нужные программы, настроены и готовы к работе - сразу. Оптовикам есть скидка. В отличие от других продавцов в Авито - у нас есть выбор (10-15 штук) - даём 100% гарантию от себя на возврат и обмен. Дадим возможность включить каждый, проверить всё на месте - не спеша. Предложение ограничение, мы в центре, звоните сейчас и приезжайте!</t>
-  </si>
-  <si>
-    <t>Lenovo Yoga 3 Pro Core M 4Gb 128SSD (гарантия) в Москве</t>
-  </si>
-  <si>
-    <t>м. Динамо</t>
-  </si>
-  <si>
-    <t>Сегодня16:17</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/lenovo_yoga_3_pro_core_m_4gb_128ssd_garantiya_865671975</t>
-  </si>
-  <si>
-    <t>http://81.img.avito.st/140x105/3140032381.jpg</t>
-  </si>
-  <si>
-    <t>● Модель: Lenovo IdeaPad Yoga 3 Pro 1370 (80HE00UCRK).● Состояние: отличное(на фото именно это устройство), б/у, полностью исправен, в ремонте не был, 4-х ядерный.● Цвет: оранжевый.● Комплект: сетевой адаптер, кабель питания, документы, коробка.---------------------------------------------------------------------------------------------------● Характеристики:Тип процессора — Intel Core M-5Y51 CPUЧастота процессора — 1100 МГцРазмер оперативной памяти — 4 ГбОбъем накопителя — 128 Гб SSDРазмер экрана — 13.3 дюймВидеопроцессор — HD Graphics 5300Беспроводная связь — Wi-Fi/BluetoothОперационная система — Win 8.1---------------------------------------------------------------------------------------------------● Цена: 44 990 руб.---------------------------------------------------------------------------------------------------● Техническая гарантия: 2 недели(если устройство неисправно - заменим на аналогичное с перерасчетом стоимости, безвозмездно устраним недостатки, или вернем уплаченную за товар сумму).● Юридическая гарантия: пожизненная(предоставим все необходимые документы - договор купли-продажи и акт приема-передачи; товарный и кассовый чек. Вернем уплаченную за товар сумму, если устройство приобретено незаконным путем).---------------------------------------------------------------------------------------------------Если Вы читаете это объявление – значит товар в наличии!Также всегда в продаже сопутствующие аксессуары!---------------------------------------------------------------------------------------------------● Время работы: с 10:00 до 21:00 - ежедневно.● Адрес: Москва, Нарышкинская аллея, 5.---------------------------------------------------------------------------------------------------● Самовывоз: бесплатно, производится после резерва товара.● Доставка по Москве: 500 руб.● Доставка по России: производится только после 100% оплаты товара и стоимости доставки, и рассчитывается согласно тарифам транспортных компаний. Порядочность гарантируем!</t>
-  </si>
-  <si>
-    <t>Продам рабочий нетбук Acer с зарядным в Москве</t>
-  </si>
-  <si>
-    <t>м. Парк культуры</t>
-  </si>
-  <si>
-    <t>Сегодня15:56</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/prodam_rabochiy_netbuk_acer_s_zaryadnym_874823336</t>
-  </si>
-  <si>
-    <t>http://35.img.avito.st/140x105/3173519335.jpg</t>
-  </si>
-  <si>
-    <t>В общем, вполне неплохой нетбук, использовал аккуратно. Покупался в недалеком 2013 году за 15 тыс.руб. Продаю, т.к. уже давненько не использую его. Работает.</t>
-  </si>
-  <si>
-    <t>Игровой Asus на мощной начинке Гарантия Доставка в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/igrovoy_asus_na_moschnoy_nachinke_garantiya_dostavka_874221099</t>
-  </si>
-  <si>
-    <t>http://27.img.avito.st/140x105/3171263827.jpg</t>
-  </si>
-  <si>
-    <t>MacBook Air 13" как Новенький в Москве</t>
-  </si>
-  <si>
-    <t>Сегодня16:16</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_air_13_kak_novenkiy_874834354</t>
-  </si>
-  <si>
-    <t>http://29.img.avito.st/140x105/3173561729.jpg</t>
-  </si>
-  <si>
-    <t>MacBook Air 13 в прекрасном состоянии. Ни царапин, ни вмятин, никаких дефектов. Все работает как положено, технически абсолютно исправен. Характеристики на фото. В комплекте зарядка, чехол.</t>
-  </si>
-  <si>
-    <t>HP Core i7 2630QM/8 Ядер/Мощный-Игровой radeon в Москве</t>
-  </si>
-  <si>
-    <t>Сегодня15:55</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/hp_core_i7_2630qm8_yadermoschnyy-igrovoy_radeon_874822450</t>
-  </si>
-  <si>
-    <t>http://74.img.avito.st/140x105/3173533474.jpg</t>
-  </si>
-  <si>
-    <t>Здравствуйте!Продаём HP,который стоял у нас в офисе.Приобретала стоматологическая компания для офиса за 46 тыс.р.Всё идеально работает.ЛЮБЫЕ проверки приветствуются!!!Техническое состояние на 5+.Нужен Жёсткий диск и оперативная Память и установка Windows.Внешнее состояние на 5.В ремонте Не был.Не шумит Не греется.Если Вы хотите купить ноутбук без "Головных болей" и "Подводных камней" - Вот Он!Загружается быстро ~ 10 сек.В комплекте Ноутбук,З/У(зарядное устройство).   Процессор Core i7..,Это 8 Ядер,по 2 Ghz(частота)на каждое.+ режим TurboBost(авторазгон)до 3.3 Ghz.Мощный.Лучше многих Core i3..,Core i5 или AMD.   Диагональ ноутбука - 15.6 Дюймов.С DVD CD приводом(Пишущий) + Антибликовый экран.   Две Видеокарты..;RADEON 6770 на 2 Gb.Тянет абсолютно любые программы и игры..;   PhotoShop.   AutoCad.   3dMax.А также..;   GTA 3,4,5 - на средних.   MassEffect(последний) - на максималках.   FELLAUT 2,3 - на максималках.   MAFIA 2 - на максималках.   MetroRedux - на максималках.   PROTOTIP - на максималках.   TANKI 80-100 FPC (довольно не плохо).   DOTA и т.д. и т.п...+ HD GRAPHICS 3000 около 2 Gb.Для рабочего стола.Итого 4 Gb.Видеопамяти.USB 3.0,2.0,3.0,2.0...HDMI разъём полноценный.VGA - разъём.Островная Клавиатура - Обрезиненная.!Wi-Fi и т.д. и т.п...Любые проверки приветствуются!!!Торга Нет.Торга Нет.Подвезу к своему метро.Звонить можно КРУГЛОСУТОЧНО!</t>
-  </si>
-  <si>
-    <t>Apple macbook Pro 15 Retina 90 циклов как новый в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/apple_macbook_pro_15_retina_90_tsiklov_kak_novyy_874826040</t>
-  </si>
-  <si>
-    <t>http://54.img.avito.st/140x105/3173531054.jpg</t>
-  </si>
-  <si>
-    <t>Продаю практически новый macbook pro 15 Retina display.Полный комплект,как из магазина.Был куплен в 2014 году.Модель конца 2013 года.Идеальный ни царапин,ни потертостей,как новый.Использовался очень редко.Состояние нового.2 ггц Intel core i78 gb DDR3Intel Iris 1536 mb256 gb SSDРостест.Полный комплект:коробка,зарядка.90 циклов перезарядки</t>
-  </si>
-  <si>
-    <t>Продам ноутбук asus, ноябрь 2007 год выпуска в Москве</t>
-  </si>
-  <si>
-    <t>м. Первомайская</t>
-  </si>
-  <si>
-    <t>Сегодня16:25</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/prodam_noutbuk_asus_noyabr_2007_god_vypuska_811981497</t>
-  </si>
-  <si>
-    <t>http://82.img.avito.st/140x105/2837741582.jpg</t>
-  </si>
-  <si>
-    <t>Продам ноутбук ASUS. Дата выпуска ноябрь 2007 год. Ноутбук в рабочем состоянии. ASUS M50Sr (Pro58Sr) 15,4"WXGA iCore2DuoT5750 (2,0)/3072/250/DVD+-RW/ATI HD3470 256/WiFi/BT/Cam/WVHB. Технические характеристики на фотографиях видны. Внешний вид: без трещин, на клавишах не стерты буквы и цифры, не поцарапан. Установочные диски сохранены.</t>
-  </si>
-  <si>
-    <t>Нетбук lenovo(idealpad S10-3S) в Москве</t>
-  </si>
-  <si>
-    <t>Сегодня16:00</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/netbuk_lenovoidealpad_s10-3s_874825022</t>
-  </si>
-  <si>
-    <t>http://33.img.avito.st/140x105/3173519833.jpg</t>
-  </si>
-  <si>
-    <t>Очень оригинальная модель с возможностью поддержки сим картыпредусмотрен специальный слот для неёВ отличном состоянии пользовались для перелетовКупил жене планшет нотик продам за ненадобностью</t>
-  </si>
-  <si>
-    <t>Кнопка включения(переключать) Samsung N130 N150 в Москве</t>
-  </si>
-  <si>
-    <t>м. Аннино</t>
-  </si>
-  <si>
-    <t>Сегодня16:03</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/knopka_vklyucheniyapereklyuchat_samsung_n130_n150_490624066</t>
-  </si>
-  <si>
-    <t>http://39.img.avito.st/140x105/1380454839.jpg</t>
-  </si>
-  <si>
-    <t>подходит для Samsung N100 N130 N145 N148 N150 NC10 N250 N260 NP-N130 NP-N135 NP-N140 NP-N145</t>
-  </si>
-  <si>
-    <t>Hp 620 intel core 2 duo 4500/4gb/SSD-60/web камера в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/hp_620_intel_core_2_duo_45004gbssd-60web_kamera_598041027</t>
-  </si>
-  <si>
-    <t>http://08.img.avito.st/140x105/1761286808.jpg</t>
-  </si>
-  <si>
-    <t>Hp-620 intel core 2 duo 4500/4gb/SSD-60/камера</t>
-  </si>
-  <si>
-    <t>Sony vaio VGN-SZ2XRP в Москве</t>
-  </si>
-  <si>
-    <t>м. ВДНХ</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/sony_vaio_vgn-sz2xrp_874824260</t>
-  </si>
-  <si>
-    <t>http://15.img.avito.st/140x105/3173523115.jpg</t>
-  </si>
-  <si>
-    <t>Продается на запчасти ноутбук Sony VAIO VGN SZ2XRP.Повреждены разьемы шлейфов:1) На плате с разъемами наушников\микрофона.2) На материнской плате, в который втыкается шлейф от платы с кнопкой питания.все остальное в отличном рабочем состоянии.Цены на отдельные запчасти- в личку</t>
-  </si>
-  <si>
-    <t>Power book g4 в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/power_book_g4_874830151</t>
-  </si>
-  <si>
-    <t>http://44.img.avito.st/140x105/3173546444.jpg</t>
-  </si>
-  <si>
-    <t>Состояние на 4, год назад работал, положил на полку и сейчас больше не включается, возможно проблема с батареей.</t>
-  </si>
-  <si>
-    <t>Asus EEE PC 1215B + SSD OCZ Agility 3 64Gb в Москве</t>
-  </si>
-  <si>
-    <t>м. Беляево</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/asus_eee_pc_1215b_ssd_ocz_agility_3_64gb_874823240</t>
-  </si>
-  <si>
-    <t>http://79.img.avito.st/140x105/3173518079.jpg</t>
-  </si>
-  <si>
-    <t>Продам нетбук Asus EEE PC 1215B, установлен жесткий диск SSD OCZ Agility 3 64Gb, 4Gb ОЗУ.11,6"AMD E-450 APU 1.65GhzRadeon HD Graphics</t>
-  </si>
-  <si>
-    <t>Macbook pro 15' 2013, i7, 16 gb, 512 SSD в Москве</t>
-  </si>
-  <si>
-    <t>м. Новогиреево</t>
-  </si>
-  <si>
-    <t>Сегодня16:06</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_15_2013_i7_16_gb_512_ssd_861759054</t>
-  </si>
-  <si>
-    <t>http://82.img.avito.st/140x105/3155026582.jpg</t>
-  </si>
-  <si>
-    <t>Продам в хорошие руки свой собственный любимый макбук (не перекуп). Топовая комплектация, состояние идеальное. В комплекте макбук, зарядка, удлинитель. Все вопросы по телефону. Разумный торг.</t>
-  </si>
-  <si>
-    <t>Hp 17 дюймов Game 2015 идеал в коробке в Москве</t>
-  </si>
-  <si>
-    <t>м. Алексеевская</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/hp_17_dyuymov_game_2015_ideal_v_korobke_874826320</t>
-  </si>
-  <si>
-    <t>http://23.img.avito.st/140x105/3173567123.jpg</t>
-  </si>
-  <si>
-    <t>Игровой мощный ноутбук 17 дюймов , год простоял на столе, отличное состояние . 42.000 новый покупала . Коробка и зарядка м документами естьAmd a8-4500M 1,90 GhzОзу 8 Гб; 1000 Гб жесткий Amd Radeon HD 7640G+ hd 8600M dual graphics Windows 10, батарея 5-6 часов держит отлично</t>
-  </si>
-  <si>
-    <t>Acer матовый 4ядра 4 гига в Москве</t>
-  </si>
-  <si>
-    <t>м. Отрадное</t>
-  </si>
-  <si>
-    <t>Сегодня16:09</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/acer_matovyy_4yadra_4_giga_874830673</t>
-  </si>
-  <si>
-    <t>http://76.img.avito.st/140x105/3173548276.jpg</t>
-  </si>
-  <si>
-    <t>Acer Aspire e1-510Intel -1,864ядра:4гига ram500 HDD  Windows8HD Graphics -1,7Состояние нового ,практический не пользовались ,потому и продаю лежит без дела.Х</t>
-  </si>
-  <si>
-    <t>Sony PCG-5K4P в Москве</t>
-  </si>
-  <si>
-    <t>м. Южная</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/sony_pcg-5k4p_874835129</t>
-  </si>
-  <si>
-    <t>http://59.img.avito.st/140x105/3173564259.jpg</t>
-  </si>
-  <si>
-    <t>Продам ноут, перестал включаться. На запчасти(без hdd и батареи)</t>
-  </si>
-  <si>
-    <t>м. Водный стадион</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/noutbuk_874834907</t>
-  </si>
-  <si>
-    <t>http://49.img.avito.st/140x105/3173571749.jpg</t>
-  </si>
-  <si>
-    <t>асус в итс,жена только кино смотрела на работе,160 г, два ядра ,два гига ,видюха 3400,WiFi,  и т.п.15,9 дюйм. батарея держит 1.5часа</t>
-  </si>
-  <si>
-    <t>MacBook 13, 2007г в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_13_2007g_874837724</t>
-  </si>
-  <si>
-    <t>http://26.img.avito.st/140x105/3173574126.jpg</t>
-  </si>
-  <si>
-    <t>Продаю MacBook 2007 года. В хорошем техническом состоянии, все работает. Состояние и характеристики видны на фото. В комплекте: шнур для зарядки, ноутбук, пульт, документация, установочные диски с Mac OS, чек + новая батарея (101 цикл). Память можно расширить до 6gb.</t>
-  </si>
-  <si>
-    <t>Игровой, тонкий Ноутбук Acer V5-532G A8/4gb/500gb в Москве</t>
-  </si>
-  <si>
-    <t>м. Тульская</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/igrovoy_tonkiy_noutbuk_acer_v5-532g_a84gb500gb_874838053</t>
-  </si>
-  <si>
-    <t>http://68.img.avito.st/140x105/3173589068.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продается мощный игровой ноутбук Асер Aspire V5-532 в тонком, легком корпусе, с оригинальным зарядным устройством в комплекте.Отличные характеристики позволят играть в массу игр, решить кучу различных задач, заниматься учебой или работой.Экран 15.6 дюйма с разрешением 1366 на 768 пикселей </t>
-  </si>
-  <si>
-    <t>Acer core i7 тоненький в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/acer_core_i7_tonenkiy_874822880</t>
-  </si>
-  <si>
-    <t>http://96.img.avito.st/140x105/3173518496.jpg</t>
-  </si>
-  <si>
-    <t>Acer ultra 15.6" экран матовый игровой GeForce GT 640 m HD 3000500 gb HHD 6 gb ram Core i7 turbo 2.9 ghz 4 часа Аккум при нагрузке</t>
-  </si>
-  <si>
-    <t>MacBook Pro 1.1 в Москве</t>
-  </si>
-  <si>
-    <t>м. Пионерская</t>
-  </si>
-  <si>
-    <t>Сегодня16:15</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_1.1_703563106</t>
-  </si>
-  <si>
-    <t>http://85.img.avito.st/140x105/2157191785.jpg</t>
-  </si>
-  <si>
-    <t>Все работает.Комплект: ноут плюс зарядка. Самовывоз метро ПионерскаяМогу отправить почтой при полной предоплате плюс пересыл.</t>
-  </si>
-  <si>
-    <t>Ноутбук Sony Vaio в Москве</t>
-  </si>
-  <si>
-    <t>м. Улица 1905 года</t>
-  </si>
-  <si>
     <t>https://www.avito.ru/moskva/noutbuki/noutbuk_sony_vaio_874840806</t>
   </si>
   <si>
     <t>http://02.img.avito.st/140x105/3173587802.jpg</t>
-  </si>
-  <si>
-    <t>Мак про 13 128ssd в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/mak_pro_13_128ssd_874837478</t>
-  </si>
-  <si>
-    <t>http://29.img.avito.st/140x105/3173573129.jpg</t>
-  </si>
-  <si>
-    <t>Супер мак для дома и офиса MacBook Pro 13 звоните цена интересная Ssd 128 core 2 duo 2.66ghz 4 gb Новый Аккум поставил в рэстори GeForce 320</t>
-  </si>
-  <si>
-    <t>Asus eee pc 1001px в Москве</t>
-  </si>
-  <si>
-    <t>м. Преображенская площадь</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/asus_eee_pc_1001px_874829009</t>
-  </si>
-  <si>
-    <t>http://57.img.avito.st/140x105/3173176257.jpg</t>
-  </si>
-  <si>
-    <t>нетбук в хорошем состоянии полностью готов к работе, установлен Windows XP.добавлено памяти 2гб и жесткий диск на 320гб.В комплекте зарядка.батарея живая.Забрать можно на Преображенской площади, возможно встреча в центре.</t>
-  </si>
-  <si>
-    <t>Абсолютно новый HP 14-AN013AR в Москве</t>
-  </si>
-  <si>
-    <t>м. Щелковская</t>
-  </si>
-  <si>
-    <t>Сегодня16:11</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/absolyutno_novyy_hp_14-an013ar_874831848</t>
-  </si>
-  <si>
-    <t>http://21.img.avito.st/140x105/3173551921.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноут привезен из штатов .Привезли 2 штуки. Один остался мне, второй продается. Коробка не распечатывалась, все пломбы на месте. </t>
-  </si>
-  <si>
-    <t>Трансформер Acer Aspire Switch 10 SW5-012-11EH в Москве</t>
-  </si>
-  <si>
-    <t>м. Проспект Мира</t>
-  </si>
-  <si>
-    <t>Сегодня16:23</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/transformer_acer_aspire_switch_10_sw5-012-11eh_874838123</t>
-  </si>
-  <si>
-    <t>http://58.img.avito.st/140x105/3173568858.jpg</t>
-  </si>
-  <si>
-    <t>Очень хорошая машинка, исправно служила, пользовался редко. Удобна, надёжна, хорошее изображение. На ней хорошо работать с текстом, в инете, хотя как - то на неё Skyrim ставил. Без торга, в комплекте есть чехол.</t>
-  </si>
-  <si>
-    <t>Хорошее решение для всего Acer aspire Гарантия в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/horoshee_reshenie_dlya_vsego_acer_aspire_garantiya_874248429</t>
-  </si>
-  <si>
-    <t>http://07.img.avito.st/140x105/3171402007.jpg</t>
-  </si>
-  <si>
-    <t>Ультрабук без единой царапины (4ядра) в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/ultrabuk_bez_edinoy_tsarapiny_4yadra_857217774</t>
-  </si>
-  <si>
-    <t>http://33.img.avito.st/140x105/3099871033.jpg</t>
-  </si>
-  <si>
-    <t>Продается ноутбук в идеальном состоянии.</t>
-  </si>
-  <si>
-    <t>MacBook Pro 13" в Москве</t>
-  </si>
-  <si>
-    <t>м. Крылатское</t>
-  </si>
-  <si>
-    <t>Сегодня16:19</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/macbook_pro_13_873195383</t>
-  </si>
-  <si>
-    <t>http://38.img.avito.st/140x105/3167622238.jpg</t>
-  </si>
-  <si>
-    <t>Модель: MF8392.7GHz8gb128GB</t>
-  </si>
-  <si>
-    <t>С 4 гигами Lenovo IdeaPad G505 в Москве</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/s_4_gigami_lenovo_ideapad_g505_840075001</t>
-  </si>
-  <si>
-    <t>http://70.img.avito.st/140x105/2999855670.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Продам на запчасти в Москве</t>
-  </si>
-  <si>
-    <t>м. Курская</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/moskva/noutbuki/prodam_na_zapchasti_874833095</t>
-  </si>
-  <si>
-    <t>http://79.img.avito.st/140x105/3173557479.jpg</t>
-  </si>
-  <si>
-    <t>Продам на запчасти ноутбук. Перестал загружаться, требует ввести загрузочный диск.</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1079,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="n">
-        <v>767227015</v>
+        <v>811981497</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1117,13 +1105,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="n">
-        <v>849684311</v>
+        <v>874835342</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>1500</v>
+        <v>40000</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1143,13 +1131,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="n">
-        <v>874835342</v>
+        <v>874826040</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>40000</v>
+        <v>82000</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1181,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1207,16 +1195,16 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1224,25 +1212,25 @@
         <v>874837797</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>4000</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1250,25 +1238,25 @@
         <v>874833178</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>45000</v>
       </c>
       <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1276,25 +1264,25 @@
         <v>871970459</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
         <v>24900</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1302,7 +1290,7 @@
         <v>760378269</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>16500</v>
@@ -1311,16 +1299,16 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1328,51 +1316,51 @@
         <v>874830243</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="n">
         <v>4000</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="n">
-        <v>669470117</v>
+        <v>874838053</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1380,25 +1368,25 @@
         <v>865671975</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
         <v>44990</v>
       </c>
       <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1406,25 +1394,25 @@
         <v>874823336</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
         <v>3000</v>
       </c>
       <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1432,7 +1420,7 @@
         <v>874221099</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
         <v>13500</v>
@@ -1441,13 +1429,13 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -1458,25 +1446,25 @@
         <v>874834354</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
         <v>20000</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1484,42 +1472,42 @@
         <v>874822450</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
         <v>11000</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="n">
-        <v>874826040</v>
+        <v>874835129</v>
       </c>
       <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D19" t="s">
         <v>96</v>
       </c>
-      <c r="C19" t="n">
-        <v>82000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
@@ -1533,42 +1521,42 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="n">
-        <v>811981497</v>
+        <v>874825022</v>
       </c>
       <c r="B20" t="s">
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>10000</v>
+        <v>6200</v>
       </c>
       <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>103</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="n">
-        <v>874825022</v>
+        <v>490624066</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="n">
+        <v>350</v>
+      </c>
+      <c r="D21" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>107</v>
@@ -1585,45 +1573,45 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="n">
-        <v>490624066</v>
+        <v>598041027</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
       </c>
       <c r="C22" t="n">
-        <v>350</v>
+        <v>14999</v>
       </c>
       <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="n">
-        <v>598041027</v>
+        <v>874824260</v>
       </c>
       <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>118</v>
@@ -1637,45 +1625,45 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="n">
-        <v>874824260</v>
+        <v>874830151</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
       </c>
       <c r="C24" t="n">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
         <v>122</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>124</v>
-      </c>
-      <c r="H24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="n">
-        <v>874830151</v>
+        <v>874823240</v>
       </c>
       <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>127</v>
@@ -1689,123 +1677,123 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="n">
-        <v>874823240</v>
+        <v>861759054</v>
       </c>
       <c r="B26" t="s">
         <v>130</v>
       </c>
       <c r="C26" t="n">
-        <v>5500</v>
+        <v>86000</v>
       </c>
       <c r="D26" t="s">
         <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="n">
-        <v>861759054</v>
+        <v>874826320</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" t="n">
-        <v>86000</v>
+        <v>25000</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="n">
-        <v>874826320</v>
+        <v>874830673</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="n">
-        <v>874830673</v>
+        <v>849684311</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C29" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="n">
-        <v>874835129</v>
+        <v>874834907</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="C30" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>154</v>
@@ -1819,19 +1807,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="n">
-        <v>874834907</v>
+        <v>874837724</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C31" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -1845,19 +1833,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="n">
-        <v>874837724</v>
+        <v>669470117</v>
       </c>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -1871,225 +1859,227 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="n">
-        <v>874838053</v>
+        <v>874822880</v>
       </c>
       <c r="B33" t="s">
         <v>165</v>
       </c>
       <c r="C33" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
         <v>166</v>
       </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>167</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>168</v>
-      </c>
-      <c r="H33" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="n">
-        <v>874822880</v>
+        <v>703563106</v>
       </c>
       <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D34" t="s">
         <v>170</v>
       </c>
-      <c r="C34" t="n">
-        <v>30000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="n">
-        <v>703563106</v>
+        <v>874837478</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>176</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>177</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>178</v>
-      </c>
-      <c r="H35" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="n">
-        <v>874840806</v>
+        <v>874829009</v>
       </c>
       <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D36" t="s">
         <v>180</v>
       </c>
-      <c r="C36" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>182</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>183</v>
       </c>
-      <c r="H36" t="s"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="n">
-        <v>874837478</v>
+        <v>874831848</v>
       </c>
       <c r="B37" t="s">
         <v>184</v>
       </c>
       <c r="C37" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="n">
-        <v>874829009</v>
+        <v>874838123</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C38" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="n">
-        <v>874831848</v>
+        <v>874248429</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C39" t="n">
-        <v>14000</v>
+        <v>10800</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="n">
-        <v>874838123</v>
+        <v>857217774</v>
       </c>
       <c r="B40" t="s">
         <v>199</v>
       </c>
       <c r="C40" t="n">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
         <v>200</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>201</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>202</v>
-      </c>
-      <c r="G40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="n">
-        <v>874248429</v>
+        <v>873195383</v>
       </c>
       <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
         <v>205</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>206</v>
@@ -2098,50 +2088,50 @@
         <v>207</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="n">
-        <v>857217774</v>
+        <v>840075001</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C42" t="n">
-        <v>15700</v>
+        <v>11900</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="n">
-        <v>873195383</v>
+        <v>874833095</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43" t="n">
-        <v>69500</v>
+        <v>3000</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
         <v>215</v>
@@ -2153,56 +2143,28 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="n">
-        <v>840075001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" t="n">
-        <v>11900</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" t="s">
-        <v>220</v>
-      </c>
-      <c r="H44" t="s">
-        <v>221</v>
-      </c>
-    </row>
+    <row r="44" spans="1:8"/>
     <row r="45" spans="1:8">
       <c r="A45" t="n">
-        <v>874833095</v>
+        <v>874840806</v>
       </c>
       <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" t="s">
         <v>222</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2248,8 +2210,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId39"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId40"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId42"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
